--- a/NỘI DUNG YÊU CẦU/Logic phần mềm .xlsx
+++ b/NỘI DUNG YÊU CẦU/Logic phần mềm .xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20410"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\QUẢN LÝ YCKT 05-07-24(1 CSDL) - Đang thao tác\NỘI DUNG YÊU CẦU\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PM QUAN LY IT( LÀM LẠI) 28-01-2025\QUANLY-IT-Cai-Tien-Update-PM-\NỘI DUNG YÊU CẦU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BBC8C08-A77D-4F43-8B05-997A81D2B219}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" firstSheet="8" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" firstSheet="6" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Phần đăng nhập" sheetId="1" r:id="rId1"/>
@@ -557,7 +556,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -999,26 +998,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1036,9 +1047,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1047,22 +1055,13 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5644,15 +5643,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>214313</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>130969</xdr:rowOff>
+      <xdr:colOff>202406</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>11906</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:colOff>190501</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:rowOff>23813</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5667,8 +5666,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="2643188" y="7560469"/>
-          <a:ext cx="3357562" cy="83343"/>
+          <a:off x="2631281" y="7631906"/>
+          <a:ext cx="3369470" cy="11907"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -8980,7 +8979,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9171,7 +9170,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B69E206-17AF-4EA1-BF60-58BFEE607558}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:AC35"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -9341,7 +9340,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="M5:M35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9372,7 +9371,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B882F1F-22BE-470A-8FCC-A1ED35DF23A1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9387,7 +9386,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B6:V33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9428,11 +9427,11 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL62"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L55" sqref="L55"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9448,40 +9447,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="K1" s="52" t="s">
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="K1" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
-      <c r="W1" s="57" t="s">
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="W1" s="45" t="s">
         <v>93</v>
       </c>
-      <c r="X1" s="57"/>
-      <c r="Y1" s="57"/>
+      <c r="X1" s="45"/>
+      <c r="Y1" s="45"/>
       <c r="AB1" s="17" t="s">
         <v>2</v>
       </c>
       <c r="AD1" s="51" t="s">
         <v>115</v>
       </c>
-      <c r="AH1" s="61" t="s">
+      <c r="AH1" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="AI1" s="61"/>
-      <c r="AJ1" s="61"/>
+      <c r="AI1" s="52"/>
+      <c r="AJ1" s="52"/>
     </row>
     <row r="2" spans="2:36" x14ac:dyDescent="0.25">
       <c r="P2" s="15"/>
@@ -9489,16 +9488,16 @@
       <c r="R2" s="15"/>
       <c r="S2" s="15"/>
       <c r="T2" s="15"/>
-      <c r="W2" s="57"/>
-      <c r="X2" s="57"/>
-      <c r="Y2" s="57"/>
+      <c r="W2" s="45"/>
+      <c r="X2" s="45"/>
+      <c r="Y2" s="45"/>
       <c r="Z2" s="20" t="s">
         <v>2</v>
       </c>
       <c r="AA2" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="AB2" s="63"/>
+      <c r="AB2" s="54"/>
       <c r="AD2" s="51"/>
       <c r="AE2" s="15"/>
       <c r="AF2" s="51" t="s">
@@ -9506,9 +9505,9 @@
       </c>
     </row>
     <row r="3" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="W3" s="57"/>
-      <c r="X3" s="57"/>
-      <c r="Y3" s="57"/>
+      <c r="W3" s="45"/>
+      <c r="X3" s="45"/>
+      <c r="Y3" s="45"/>
       <c r="AA3" s="39"/>
       <c r="AB3" s="39"/>
       <c r="AD3" s="17" t="s">
@@ -9544,11 +9543,11 @@
       <c r="T6" s="15"/>
       <c r="U6" s="15"/>
       <c r="V6" s="15"/>
-      <c r="W6" s="57" t="s">
+      <c r="W6" s="45" t="s">
         <v>109</v>
       </c>
-      <c r="X6" s="57"/>
-      <c r="Y6" s="57"/>
+      <c r="X6" s="45"/>
+      <c r="Y6" s="45"/>
       <c r="AC6" s="17" t="s">
         <v>2</v>
       </c>
@@ -9561,11 +9560,11 @@
       <c r="T7" s="15"/>
       <c r="U7" s="15"/>
       <c r="V7" s="15"/>
-      <c r="W7" s="57"/>
-      <c r="X7" s="57"/>
-      <c r="Y7" s="57"/>
+      <c r="W7" s="45"/>
+      <c r="X7" s="45"/>
+      <c r="Y7" s="45"/>
       <c r="AE7" s="15"/>
-      <c r="AF7" s="62"/>
+      <c r="AF7" s="53"/>
     </row>
     <row r="8" spans="2:36" x14ac:dyDescent="0.25">
       <c r="R8" s="16"/>
@@ -9573,14 +9572,14 @@
       <c r="T8" s="15"/>
       <c r="U8" s="15"/>
       <c r="V8" s="15"/>
-      <c r="W8" s="57"/>
-      <c r="X8" s="57"/>
-      <c r="Y8" s="57"/>
-      <c r="AA8" s="57" t="s">
+      <c r="W8" s="45"/>
+      <c r="X8" s="45"/>
+      <c r="Y8" s="45"/>
+      <c r="AA8" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="AB8" s="57"/>
-      <c r="AC8" s="57"/>
+      <c r="AB8" s="45"/>
+      <c r="AC8" s="45"/>
       <c r="AF8" s="17" t="s">
         <v>2</v>
       </c>
@@ -9590,12 +9589,12 @@
       <c r="T9" s="15"/>
       <c r="U9" s="15"/>
       <c r="V9" s="15"/>
-      <c r="W9" s="57"/>
-      <c r="X9" s="57"/>
-      <c r="Y9" s="57"/>
-      <c r="AA9" s="57"/>
-      <c r="AB9" s="57"/>
-      <c r="AC9" s="57"/>
+      <c r="W9" s="45"/>
+      <c r="X9" s="45"/>
+      <c r="Y9" s="45"/>
+      <c r="AA9" s="45"/>
+      <c r="AB9" s="45"/>
+      <c r="AC9" s="45"/>
       <c r="AD9" s="17" t="s">
         <v>2</v>
       </c>
@@ -9609,18 +9608,18 @@
       <c r="X10" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="AA10" s="57"/>
-      <c r="AB10" s="57"/>
-      <c r="AC10" s="57"/>
+      <c r="AA10" s="45"/>
+      <c r="AB10" s="45"/>
+      <c r="AC10" s="45"/>
     </row>
     <row r="11" spans="2:36" x14ac:dyDescent="0.25">
       <c r="V11" s="15"/>
       <c r="W11" s="15"/>
       <c r="X11" s="19"/>
       <c r="Y11" s="19"/>
-      <c r="AA11" s="57"/>
-      <c r="AB11" s="57"/>
-      <c r="AC11" s="57"/>
+      <c r="AA11" s="45"/>
+      <c r="AB11" s="45"/>
+      <c r="AC11" s="45"/>
     </row>
     <row r="12" spans="2:36" x14ac:dyDescent="0.25">
       <c r="V12" s="16"/>
@@ -9645,40 +9644,40 @@
         <v>121</v>
       </c>
       <c r="L14" s="37"/>
-      <c r="O14" s="57" t="s">
+      <c r="O14" s="45" t="s">
         <v>107</v>
       </c>
-      <c r="P14" s="57"/>
-      <c r="R14" s="58" t="s">
+      <c r="P14" s="45"/>
+      <c r="R14" s="61" t="s">
         <v>108</v>
       </c>
-      <c r="S14" s="59"/>
-      <c r="T14" s="59"/>
-      <c r="U14" s="59"/>
-      <c r="V14" s="59"/>
+      <c r="S14" s="62"/>
+      <c r="T14" s="62"/>
+      <c r="U14" s="62"/>
+      <c r="V14" s="62"/>
       <c r="W14" s="16"/>
     </row>
     <row r="15" spans="2:36" x14ac:dyDescent="0.25">
       <c r="K15" s="37"/>
       <c r="L15" s="37"/>
-      <c r="O15" s="57"/>
-      <c r="P15" s="57"/>
-      <c r="R15" s="59"/>
-      <c r="S15" s="59"/>
-      <c r="T15" s="59"/>
-      <c r="U15" s="59"/>
-      <c r="V15" s="59"/>
+      <c r="O15" s="45"/>
+      <c r="P15" s="45"/>
+      <c r="R15" s="62"/>
+      <c r="S15" s="62"/>
+      <c r="T15" s="62"/>
+      <c r="U15" s="62"/>
+      <c r="V15" s="62"/>
     </row>
     <row r="16" spans="2:36" x14ac:dyDescent="0.25">
       <c r="K16" s="37"/>
       <c r="L16" s="37"/>
-      <c r="O16" s="57"/>
-      <c r="P16" s="57"/>
-      <c r="R16" s="59"/>
-      <c r="S16" s="59"/>
-      <c r="T16" s="59"/>
-      <c r="U16" s="59"/>
-      <c r="V16" s="59"/>
+      <c r="O16" s="45"/>
+      <c r="P16" s="45"/>
+      <c r="R16" s="62"/>
+      <c r="S16" s="62"/>
+      <c r="T16" s="62"/>
+      <c r="U16" s="62"/>
+      <c r="V16" s="62"/>
     </row>
     <row r="17" spans="2:35" x14ac:dyDescent="0.25">
       <c r="O17" s="22" t="s">
@@ -9695,23 +9694,23 @@
       <c r="Y17" s="21"/>
     </row>
     <row r="18" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="W18" s="57" t="s">
+      <c r="W18" s="45" t="s">
         <v>118</v>
       </c>
-      <c r="X18" s="57"/>
-      <c r="Y18" s="57"/>
+      <c r="X18" s="45"/>
+      <c r="Y18" s="45"/>
     </row>
     <row r="19" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B19" s="60" t="s">
+      <c r="B19" s="63" t="s">
         <v>99</v>
       </c>
-      <c r="C19" s="60"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="60"/>
-      <c r="L19" s="55" t="s">
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
+      <c r="L19" s="59" t="s">
         <v>103</v>
       </c>
-      <c r="M19" s="55"/>
+      <c r="M19" s="59"/>
       <c r="O19" s="51" t="s">
         <v>106</v>
       </c>
@@ -9722,17 +9721,17 @@
       <c r="S19" s="51"/>
       <c r="T19" s="16"/>
       <c r="U19" s="16"/>
-      <c r="W19" s="57"/>
-      <c r="X19" s="57"/>
-      <c r="Y19" s="57"/>
+      <c r="W19" s="45"/>
+      <c r="X19" s="45"/>
+      <c r="Y19" s="45"/>
     </row>
     <row r="20" spans="2:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="60"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60"/>
-      <c r="L20" s="55"/>
-      <c r="M20" s="55"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="L20" s="59"/>
+      <c r="M20" s="59"/>
       <c r="O20" s="51"/>
       <c r="P20" s="51"/>
       <c r="R20" s="51"/>
@@ -9752,13 +9751,13 @@
       <c r="C21" s="51"/>
       <c r="D21" s="51"/>
       <c r="E21" s="51"/>
-      <c r="H21" s="55" t="s">
+      <c r="H21" s="59" t="s">
         <v>101</v>
       </c>
-      <c r="L21" s="47" t="s">
+      <c r="L21" s="65" t="s">
         <v>104</v>
       </c>
-      <c r="M21" s="47"/>
+      <c r="M21" s="65"/>
       <c r="O21" s="23" t="s">
         <v>113</v>
       </c>
@@ -9774,9 +9773,9 @@
       <c r="C22" s="51"/>
       <c r="D22" s="51"/>
       <c r="E22" s="51"/>
-      <c r="H22" s="55"/>
-      <c r="L22" s="47"/>
-      <c r="M22" s="47"/>
+      <c r="H22" s="59"/>
+      <c r="L22" s="65"/>
+      <c r="M22" s="65"/>
       <c r="O22" s="16"/>
       <c r="P22" s="16"/>
     </row>
@@ -9785,62 +9784,62 @@
       <c r="C23" s="51"/>
       <c r="D23" s="51"/>
       <c r="E23" s="51"/>
-      <c r="G23" s="56" t="s">
+      <c r="G23" s="60" t="s">
         <v>102</v>
       </c>
-      <c r="H23" s="56"/>
-      <c r="L23" s="47"/>
-      <c r="M23" s="47"/>
+      <c r="H23" s="60"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="65"/>
       <c r="O23" s="16"/>
       <c r="P23" s="16"/>
     </row>
     <row r="24" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="G24" s="56"/>
-      <c r="H24" s="56"/>
-      <c r="L24" s="47"/>
-      <c r="M24" s="47"/>
+      <c r="G24" s="60"/>
+      <c r="H24" s="60"/>
+      <c r="L24" s="65"/>
+      <c r="M24" s="65"/>
       <c r="X24" s="24" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="25" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="G25" s="56"/>
-      <c r="H25" s="56"/>
-      <c r="L25" s="47"/>
-      <c r="M25" s="47"/>
+      <c r="G25" s="60"/>
+      <c r="H25" s="60"/>
+      <c r="L25" s="65"/>
+      <c r="M25" s="65"/>
       <c r="U25" s="17" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="26" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="G26" s="56"/>
-      <c r="H26" s="56"/>
-      <c r="L26" s="47"/>
-      <c r="M26" s="47"/>
-      <c r="Q26" s="54" t="s">
+      <c r="G26" s="60"/>
+      <c r="H26" s="60"/>
+      <c r="L26" s="65"/>
+      <c r="M26" s="65"/>
+      <c r="Q26" s="58" t="s">
         <v>90</v>
       </c>
-      <c r="R26" s="54"/>
-      <c r="S26" s="54"/>
-      <c r="T26" s="54"/>
-      <c r="U26" s="54"/>
+      <c r="R26" s="58"/>
+      <c r="S26" s="58"/>
+      <c r="T26" s="58"/>
+      <c r="U26" s="58"/>
     </row>
     <row r="27" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="G27" s="56"/>
-      <c r="H27" s="56"/>
+      <c r="G27" s="60"/>
+      <c r="H27" s="60"/>
       <c r="K27" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="L27" s="47"/>
-      <c r="M27" s="47"/>
+      <c r="L27" s="65"/>
+      <c r="M27" s="65"/>
     </row>
     <row r="28" spans="2:35" x14ac:dyDescent="0.25">
       <c r="G28" s="17" t="s">
         <v>2</v>
       </c>
       <c r="H28" s="16"/>
-      <c r="L28" s="47"/>
-      <c r="M28" s="47"/>
+      <c r="L28" s="65"/>
+      <c r="M28" s="65"/>
       <c r="V28" s="21"/>
     </row>
     <row r="29" spans="2:35" x14ac:dyDescent="0.25">
@@ -9866,16 +9865,16 @@
       <c r="AI30" s="46"/>
     </row>
     <row r="31" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="K31" s="48" t="s">
+      <c r="K31" s="66" t="s">
         <v>105</v>
       </c>
-      <c r="L31" s="49"/>
-      <c r="M31" s="49"/>
-      <c r="Q31" s="64" t="s">
+      <c r="L31" s="48"/>
+      <c r="M31" s="48"/>
+      <c r="Q31" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="R31" s="49"/>
-      <c r="S31" s="49"/>
+      <c r="R31" s="48"/>
+      <c r="S31" s="48"/>
       <c r="T31" s="17" t="s">
         <v>2</v>
       </c>
@@ -9885,12 +9884,12 @@
       <c r="X31" s="51"/>
     </row>
     <row r="32" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="K32" s="49"/>
-      <c r="L32" s="49"/>
-      <c r="M32" s="49"/>
-      <c r="Q32" s="49"/>
-      <c r="R32" s="49"/>
-      <c r="S32" s="49"/>
+      <c r="K32" s="48"/>
+      <c r="L32" s="48"/>
+      <c r="M32" s="48"/>
+      <c r="Q32" s="48"/>
+      <c r="R32" s="48"/>
+      <c r="S32" s="48"/>
       <c r="X32" s="51"/>
       <c r="AC32" s="24" t="s">
         <v>2</v>
@@ -9907,18 +9906,18 @@
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
       <c r="D33" s="16"/>
-      <c r="K33" s="49"/>
-      <c r="L33" s="49"/>
-      <c r="M33" s="49"/>
-      <c r="Q33" s="49"/>
-      <c r="R33" s="49"/>
-      <c r="S33" s="49"/>
+      <c r="K33" s="48"/>
+      <c r="L33" s="48"/>
+      <c r="M33" s="48"/>
+      <c r="Q33" s="48"/>
+      <c r="R33" s="48"/>
+      <c r="S33" s="48"/>
     </row>
     <row r="34" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="L34" s="53" t="s">
+      <c r="L34" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="M34" s="53"/>
+      <c r="M34" s="57"/>
       <c r="N34" s="38"/>
       <c r="O34" s="38"/>
       <c r="P34" s="38"/>
@@ -9964,11 +9963,11 @@
       <c r="X37" s="6"/>
       <c r="Y37" s="6"/>
       <c r="Z37" s="6"/>
-      <c r="AA37" s="57" t="s">
+      <c r="AA37" s="45" t="s">
         <v>94</v>
       </c>
-      <c r="AB37" s="57"/>
-      <c r="AC37" s="57"/>
+      <c r="AB37" s="45"/>
+      <c r="AC37" s="45"/>
       <c r="AD37" s="15"/>
       <c r="AE37" s="15"/>
       <c r="AF37" s="42" t="s">
@@ -9985,9 +9984,9 @@
       <c r="X38" s="6"/>
       <c r="Y38" s="6"/>
       <c r="Z38" s="6"/>
-      <c r="AA38" s="57"/>
-      <c r="AB38" s="57"/>
-      <c r="AC38" s="57"/>
+      <c r="AA38" s="45"/>
+      <c r="AB38" s="45"/>
+      <c r="AC38" s="45"/>
       <c r="AD38" s="18" t="s">
         <v>2</v>
       </c>
@@ -10004,9 +10003,9 @@
       <c r="X39" s="6"/>
       <c r="Y39" s="6"/>
       <c r="Z39" s="6"/>
-      <c r="AA39" s="57"/>
-      <c r="AB39" s="57"/>
-      <c r="AC39" s="57"/>
+      <c r="AA39" s="45"/>
+      <c r="AB39" s="45"/>
+      <c r="AC39" s="45"/>
       <c r="AD39" s="15"/>
       <c r="AE39" s="15"/>
       <c r="AF39" s="42"/>
@@ -10018,9 +10017,9 @@
     <row r="40" spans="1:38" x14ac:dyDescent="0.25">
       <c r="Y40" s="6"/>
       <c r="Z40" s="6"/>
-      <c r="AA40" s="57"/>
-      <c r="AB40" s="57"/>
-      <c r="AC40" s="57"/>
+      <c r="AA40" s="45"/>
+      <c r="AB40" s="45"/>
+      <c r="AC40" s="45"/>
       <c r="AD40" s="15"/>
       <c r="AE40" s="15"/>
       <c r="AF40" s="42"/>
@@ -10061,13 +10060,13 @@
       <c r="AJ42" s="6"/>
     </row>
     <row r="43" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="F43" s="45" t="s">
+      <c r="F43" s="64" t="s">
         <v>119</v>
       </c>
-      <c r="G43" s="45"/>
-      <c r="H43" s="45"/>
-      <c r="I43" s="45"/>
-      <c r="J43" s="45"/>
+      <c r="G43" s="64"/>
+      <c r="H43" s="64"/>
+      <c r="I43" s="64"/>
+      <c r="J43" s="64"/>
       <c r="Y43" s="6"/>
       <c r="Z43" s="6"/>
       <c r="AA43" s="6"/>
@@ -10082,65 +10081,65 @@
       <c r="AJ43" s="6"/>
     </row>
     <row r="44" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="F44" s="45"/>
-      <c r="G44" s="45"/>
-      <c r="H44" s="45"/>
-      <c r="I44" s="45"/>
-      <c r="J44" s="45"/>
+      <c r="F44" s="64"/>
+      <c r="G44" s="64"/>
+      <c r="H44" s="64"/>
+      <c r="I44" s="64"/>
+      <c r="J44" s="64"/>
       <c r="Y44" s="15"/>
       <c r="Z44" s="15"/>
       <c r="AA44" s="15"/>
-      <c r="AB44" s="66" t="s">
+      <c r="AB44" s="50" t="s">
         <v>97</v>
       </c>
-      <c r="AC44" s="66"/>
-      <c r="AD44" s="66"/>
-      <c r="AE44" s="66"/>
-      <c r="AF44" s="66"/>
-      <c r="AG44" s="66"/>
+      <c r="AC44" s="50"/>
+      <c r="AD44" s="50"/>
+      <c r="AE44" s="50"/>
+      <c r="AF44" s="50"/>
+      <c r="AG44" s="50"/>
       <c r="AH44" s="15"/>
       <c r="AI44" s="15"/>
       <c r="AJ44" s="15"/>
     </row>
     <row r="45" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="F45" s="45"/>
-      <c r="G45" s="45"/>
-      <c r="H45" s="45"/>
-      <c r="I45" s="45"/>
-      <c r="J45" s="45"/>
-      <c r="U45" s="65" t="s">
+      <c r="F45" s="64"/>
+      <c r="G45" s="64"/>
+      <c r="H45" s="64"/>
+      <c r="I45" s="64"/>
+      <c r="J45" s="64"/>
+      <c r="U45" s="49" t="s">
         <v>100</v>
       </c>
-      <c r="V45" s="65"/>
-      <c r="W45" s="65"/>
-      <c r="X45" s="65"/>
+      <c r="V45" s="49"/>
+      <c r="W45" s="49"/>
+      <c r="X45" s="49"/>
       <c r="Y45" s="6"/>
       <c r="Z45" s="6"/>
       <c r="AA45" s="6"/>
-      <c r="AB45" s="66"/>
-      <c r="AC45" s="66"/>
-      <c r="AD45" s="66"/>
-      <c r="AE45" s="66"/>
-      <c r="AF45" s="66"/>
-      <c r="AG45" s="66"/>
+      <c r="AB45" s="50"/>
+      <c r="AC45" s="50"/>
+      <c r="AD45" s="50"/>
+      <c r="AE45" s="50"/>
+      <c r="AF45" s="50"/>
+      <c r="AG45" s="50"/>
       <c r="AH45" s="15"/>
       <c r="AI45" s="15"/>
       <c r="AJ45" s="15"/>
     </row>
     <row r="46" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="U46" s="65"/>
-      <c r="V46" s="65"/>
-      <c r="W46" s="65"/>
-      <c r="X46" s="65"/>
+      <c r="U46" s="49"/>
+      <c r="V46" s="49"/>
+      <c r="W46" s="49"/>
+      <c r="X46" s="49"/>
       <c r="Y46" s="15"/>
       <c r="Z46" s="15"/>
       <c r="AA46" s="15"/>
-      <c r="AB46" s="66"/>
-      <c r="AC46" s="66"/>
-      <c r="AD46" s="66"/>
-      <c r="AE46" s="66"/>
-      <c r="AF46" s="66"/>
-      <c r="AG46" s="66"/>
+      <c r="AB46" s="50"/>
+      <c r="AC46" s="50"/>
+      <c r="AD46" s="50"/>
+      <c r="AE46" s="50"/>
+      <c r="AF46" s="50"/>
+      <c r="AG46" s="50"/>
       <c r="AH46" s="15"/>
       <c r="AI46" s="15"/>
       <c r="AJ46" s="15"/>
@@ -10152,19 +10151,19 @@
       <c r="G47" s="42"/>
       <c r="H47" s="42"/>
       <c r="I47" s="42"/>
-      <c r="U47" s="65"/>
-      <c r="V47" s="65"/>
-      <c r="W47" s="65"/>
-      <c r="X47" s="65"/>
+      <c r="U47" s="49"/>
+      <c r="V47" s="49"/>
+      <c r="W47" s="49"/>
+      <c r="X47" s="49"/>
       <c r="Y47" s="6"/>
       <c r="Z47" s="6"/>
       <c r="AA47" s="6"/>
-      <c r="AB47" s="66"/>
-      <c r="AC47" s="66"/>
-      <c r="AD47" s="66"/>
-      <c r="AE47" s="66"/>
-      <c r="AF47" s="66"/>
-      <c r="AG47" s="66"/>
+      <c r="AB47" s="50"/>
+      <c r="AC47" s="50"/>
+      <c r="AD47" s="50"/>
+      <c r="AE47" s="50"/>
+      <c r="AF47" s="50"/>
+      <c r="AG47" s="50"/>
       <c r="AH47" s="6"/>
       <c r="AI47" s="6"/>
       <c r="AJ47" s="6"/>
@@ -10174,10 +10173,10 @@
       <c r="G48" s="42"/>
       <c r="H48" s="42"/>
       <c r="I48" s="42"/>
-      <c r="U48" s="65"/>
-      <c r="V48" s="65"/>
-      <c r="W48" s="65"/>
-      <c r="X48" s="65"/>
+      <c r="U48" s="49"/>
+      <c r="V48" s="49"/>
+      <c r="W48" s="49"/>
+      <c r="X48" s="49"/>
       <c r="Y48" s="6"/>
       <c r="Z48" s="6"/>
       <c r="AA48" s="6"/>
@@ -10196,10 +10195,10 @@
       <c r="G49" s="42"/>
       <c r="H49" s="42"/>
       <c r="I49" s="42"/>
-      <c r="U49" s="65"/>
-      <c r="V49" s="65"/>
-      <c r="W49" s="65"/>
-      <c r="X49" s="65"/>
+      <c r="U49" s="49"/>
+      <c r="V49" s="49"/>
+      <c r="W49" s="49"/>
+      <c r="X49" s="49"/>
       <c r="Y49" s="6"/>
       <c r="Z49" s="6"/>
       <c r="AA49" s="6"/>
@@ -10293,25 +10292,12 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="AA37:AC40"/>
-    <mergeCell ref="AH30:AI30"/>
-    <mergeCell ref="Q31:S33"/>
-    <mergeCell ref="AF37:AJ40"/>
-    <mergeCell ref="U45:X49"/>
-    <mergeCell ref="AE32:AH32"/>
-    <mergeCell ref="AB44:AG47"/>
-    <mergeCell ref="Z30:AC30"/>
-    <mergeCell ref="X30:X32"/>
-    <mergeCell ref="W1:Y3"/>
-    <mergeCell ref="AA8:AC11"/>
-    <mergeCell ref="AC13:AH13"/>
-    <mergeCell ref="W6:Y9"/>
-    <mergeCell ref="W18:Y19"/>
-    <mergeCell ref="AH1:AJ1"/>
-    <mergeCell ref="AF2:AF7"/>
-    <mergeCell ref="AD1:AD2"/>
-    <mergeCell ref="AA2:AB3"/>
-    <mergeCell ref="AB5:AD5"/>
+    <mergeCell ref="F47:I51"/>
+    <mergeCell ref="F43:J45"/>
+    <mergeCell ref="K14:L16"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="L21:M28"/>
+    <mergeCell ref="K31:M33"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B21:E23"/>
     <mergeCell ref="K1:S1"/>
@@ -10325,12 +10311,25 @@
     <mergeCell ref="B19:E20"/>
     <mergeCell ref="O19:P20"/>
     <mergeCell ref="R19:S20"/>
-    <mergeCell ref="F47:I51"/>
-    <mergeCell ref="F43:J45"/>
-    <mergeCell ref="K14:L16"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="L21:M28"/>
-    <mergeCell ref="K31:M33"/>
+    <mergeCell ref="W1:Y3"/>
+    <mergeCell ref="AA8:AC11"/>
+    <mergeCell ref="AC13:AH13"/>
+    <mergeCell ref="W6:Y9"/>
+    <mergeCell ref="W18:Y19"/>
+    <mergeCell ref="AH1:AJ1"/>
+    <mergeCell ref="AF2:AF7"/>
+    <mergeCell ref="AD1:AD2"/>
+    <mergeCell ref="AA2:AB3"/>
+    <mergeCell ref="AB5:AD5"/>
+    <mergeCell ref="AA37:AC40"/>
+    <mergeCell ref="AH30:AI30"/>
+    <mergeCell ref="Q31:S33"/>
+    <mergeCell ref="AF37:AJ40"/>
+    <mergeCell ref="U45:X49"/>
+    <mergeCell ref="AE32:AH32"/>
+    <mergeCell ref="AB44:AG47"/>
+    <mergeCell ref="Z30:AC30"/>
+    <mergeCell ref="X30:X32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10339,7 +10338,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B4E165F-61B8-4C07-A15C-6331A72A3215}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A23:W42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10473,10 +10472,10 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ED3A192-2A80-49E2-86C9-A74386991F78}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
@@ -10503,7 +10502,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="V15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10524,7 +10523,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10545,7 +10544,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="W2:AB13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10585,7 +10584,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F3:Y11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10616,7 +10615,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C29:O33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10653,7 +10652,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="R3:Y23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10687,7 +10686,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10708,7 +10707,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC43"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
